--- a/src/main/resources/Employees.xlsx
+++ b/src/main/resources/Employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmak\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmak\IdeaProjects\cheetah-server\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80147F-45A4-4C85-9CCE-318CBDBC1EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC215B6-F5EB-4E17-B56F-B13D6B670AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Sandhya</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Vimal Chandra</t>
+  </si>
+  <si>
+    <t>countryLang</t>
+  </si>
+  <si>
+    <t>te-IN</t>
+  </si>
+  <si>
+    <t>en-IN</t>
+  </si>
+  <si>
+    <t>en-KE</t>
+  </si>
+  <si>
+    <t>kn-IN</t>
   </si>
 </sst>
 </file>
@@ -387,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,7 +416,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -417,8 +432,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2534678</v>
       </c>
@@ -434,8 +452,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4537821</v>
       </c>
@@ -451,8 +472,11 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2234868</v>
       </c>
@@ -468,8 +492,11 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2564829</v>
       </c>
@@ -484,6 +511,9 @@
       </c>
       <c r="E5" t="s">
         <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Employees.xlsx
+++ b/src/main/resources/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmak\IdeaProjects\cheetah-server\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC215B6-F5EB-4E17-B56F-B13D6B670AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8889F2D-35F3-4EFE-A4AC-DEA8C4A94666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>Sandhya</t>
-  </si>
-  <si>
-    <t>Sai Prasad</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>EmpId</t>
   </si>
@@ -45,9 +33,6 @@
     <t>EmpName</t>
   </si>
   <si>
-    <t>Voice URL</t>
-  </si>
-  <si>
     <t>isAdmin</t>
   </si>
   <si>
@@ -63,9 +48,6 @@
     <t>Vimal Chandra</t>
   </si>
   <si>
-    <t>countryLang</t>
-  </si>
-  <si>
     <t>te-IN</t>
   </si>
   <si>
@@ -76,6 +58,21 @@
   </si>
   <si>
     <t>kn-IN</t>
+  </si>
+  <si>
+    <t>Country_Lang</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Sai Krishna</t>
+  </si>
+  <si>
+    <t>Sandhy Nair</t>
+  </si>
+  <si>
+    <t>VoiceURL</t>
   </si>
 </sst>
 </file>
@@ -99,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,118 +406,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>280779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>467821</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2534678</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>559902</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>266829</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4537821</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2234868</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2564829</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Employees.xlsx
+++ b/src/main/resources/Employees.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmak\IdeaProjects\cheetah-server\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8889F2D-35F3-4EFE-A4AC-DEA8C4A94666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -398,31 +392,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,9 +439,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>280779</v>
+        <v>12345</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -465,9 +459,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>467821</v>
+        <v>123456</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -485,9 +479,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>559902</v>
+        <v>123457</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -505,9 +499,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>266829</v>
+        <v>123458</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>

--- a/src/main/resources/Employees.xlsx
+++ b/src/main/resources/Employees.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>EmpId</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Pradeep Reddy</t>
   </si>
   <si>
-    <t>Vimal Chandra</t>
-  </si>
-  <si>
     <t>te-IN</t>
   </si>
   <si>
@@ -67,13 +64,43 @@
   </si>
   <si>
     <t>VoiceURL</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Vimal Chandran</t>
+  </si>
+  <si>
+    <t>vimalchandran.cj@gmail.com</t>
+  </si>
+  <si>
+    <t>U345</t>
+  </si>
+  <si>
+    <t>U346</t>
+  </si>
+  <si>
+    <t>U347</t>
+  </si>
+  <si>
+    <t>U348</t>
+  </si>
+  <si>
+    <t>pradeep.atmakur1@gmail.com</t>
+  </si>
+  <si>
+    <t>saikrishnatuduru1@outlook.com</t>
+  </si>
+  <si>
+    <t>sandhya.nair1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +115,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,15 +147,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -414,9 +454,10 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -433,18 +474,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>12345</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -456,12 +500,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>123456</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -476,15 +526,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>123457</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -496,15 +552,21 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>123458</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -516,11 +578,23 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/main/resources/Employees.xlsx
+++ b/src/main/resources/Employees.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atmak\IdeaProjects\cheetah-server\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEBE0B-E30F-42C2-8F81-2ED413880FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -75,15 +81,6 @@
     <t>vimalchandran.cj@gmail.com</t>
   </si>
   <si>
-    <t>U345</t>
-  </si>
-  <si>
-    <t>U346</t>
-  </si>
-  <si>
-    <t>U347</t>
-  </si>
-  <si>
     <t>U348</t>
   </si>
   <si>
@@ -94,13 +91,22 @@
   </si>
   <si>
     <t>sandhya.nair1@gmail.com</t>
+  </si>
+  <si>
+    <t>U340</t>
+  </si>
+  <si>
+    <t>U342</t>
+  </si>
+  <si>
+    <t>U341</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,32 +438,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -506,10 +512,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11</v>
       </c>
@@ -529,13 +535,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
@@ -555,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13</v>
       </c>
@@ -581,18 +587,18 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
